--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12235.73095780295</v>
+        <v>-14803.93123716919</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>40.72236055265581</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>211.4915895559205</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H11" t="n">
         <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412178</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937169</v>
+        <v>82.26664558937168</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1537,16 +1537,16 @@
         <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>2.03249012290671</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>28.77697325805331</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T13" t="n">
         <v>192.627833077365</v>
@@ -1591,7 +1591,7 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532906</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.8150250572543</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
         <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>61.68740743770236</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6558135741218</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937171</v>
+        <v>82.26664558937169</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
         <v>224.0740557600978</v>
@@ -1673,7 +1673,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>88.46029360621833</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103398</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.0110364712432</v>
+        <v>62.01103647124319</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326377</v>
@@ -1828,7 +1828,7 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>99.02313233785726</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6635371532906</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
         <v>291.3766389536108</v>
@@ -1850,13 +1850,13 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
-        <v>250.3402894049661</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>3.986929086141525</v>
       </c>
       <c r="H17" t="n">
         <v>220.7115115699237</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077911</v>
+        <v>35.29150897077913</v>
       </c>
       <c r="T17" t="n">
         <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X17" t="n">
         <v>295.8348478610723</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123109</v>
+        <v>93.35056828123113</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081561</v>
+        <v>74.71922020081566</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917243</v>
+        <v>72.53770982917247</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5247952055345</v>
+        <v>71.52479520553455</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163148</v>
+        <v>92.12955544163152</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692404</v>
+        <v>70.85876209692408</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244137</v>
+        <v>22.4561675924414</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265063</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,7 +2056,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7307933700227</v>
+        <v>274.7307933700225</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2068,7 +2068,7 @@
         <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>270.6797810423523</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
         <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
-        <v>308.034117254865</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>336.9667220104562</v>
       </c>
       <c r="H20" t="n">
         <v>220.7115115699237</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077911</v>
+        <v>35.29150897077913</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X20" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123109</v>
+        <v>93.35056828123113</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081561</v>
+        <v>74.71922020081566</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917243</v>
+        <v>72.53770982917247</v>
       </c>
       <c r="F22" t="n">
-        <v>71.5247952055345</v>
+        <v>71.52479520553455</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5447634234382</v>
+        <v>92.12955544163152</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692404</v>
+        <v>70.85876209692408</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244137</v>
+        <v>22.4561675924414</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265063</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587725</v>
+        <v>208.0679044405788</v>
       </c>
       <c r="U22" t="n">
         <v>212.3155853882161</v>
@@ -2305,7 +2305,7 @@
         <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
         <v>291.3766389536108</v>
@@ -2324,7 +2324,7 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E23" t="n">
-        <v>308.034117254865</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
         <v>332.9797929243147</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077911</v>
+        <v>35.29150897077913</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222234</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X23" t="n">
         <v>295.8348478610723</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123109</v>
+        <v>93.35056828123113</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081561</v>
+        <v>74.71922020081566</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917243</v>
+        <v>72.53770982917247</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5247952055345</v>
+        <v>71.52479520553455</v>
       </c>
       <c r="G25" t="n">
-        <v>154.544763423438</v>
+        <v>92.12955544163152</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692404</v>
+        <v>70.85876209692408</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244137</v>
+        <v>22.4561675924414</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265063</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2539,10 +2539,10 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>214.2286105534469</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124552</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3323,7 +3323,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797653</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,10 +4198,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.969370831727</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="C11" t="n">
-        <v>1280.199900556774</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="D11" t="n">
-        <v>949.1272486154826</v>
+        <v>1098.181131675361</v>
       </c>
       <c r="E11" t="n">
-        <v>949.1272486154826</v>
+        <v>739.585925742575</v>
       </c>
       <c r="F11" t="n">
-        <v>565.3343904913336</v>
+        <v>739.585925742575</v>
       </c>
       <c r="G11" t="n">
-        <v>351.70652225303</v>
+        <v>351.7065222530302</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725593</v>
+        <v>81.31596852725612</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801725</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801725</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.17076974102</v>
+        <v>2837.3860687907</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.17076974102</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.595161136365</v>
+        <v>2207.940619507933</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.322449540743</v>
+        <v>1861.667907912312</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.37616423039</v>
+        <v>1498.721622601959</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.6184732773132</v>
+        <v>451.898892358443</v>
       </c>
       <c r="C13" t="n">
-        <v>641.8753370148651</v>
+        <v>310.1557560959949</v>
       </c>
       <c r="D13" t="n">
-        <v>518.951744267988</v>
+        <v>187.2321633491179</v>
       </c>
       <c r="E13" t="n">
-        <v>398.2316973510535</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1786770248851</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650628</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L13" t="n">
-        <v>712.13744538694</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988181723216</v>
+        <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2111.442138627412</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.872377806008</v>
+        <v>1946.949301119697</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.298809040993</v>
+        <v>1752.375732354682</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.388988832095</v>
+        <v>1490.465912145784</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.897547291667</v>
+        <v>1262.974470605356</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.673423920166</v>
+        <v>1000.750347233854</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.673423920166</v>
+        <v>799.9538430012955</v>
       </c>
       <c r="Y13" t="n">
-        <v>938.0738914420941</v>
+        <v>606.3543105232241</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1511.026500262122</v>
+        <v>1502.261114513649</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.257029987169</v>
+        <v>1160.491644238696</v>
       </c>
       <c r="D14" t="n">
-        <v>838.184378045877</v>
+        <v>1098.18113167536</v>
       </c>
       <c r="E14" t="n">
-        <v>838.184378045877</v>
+        <v>739.5859257425748</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3915199217282</v>
+        <v>739.5859257425748</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31596852725596</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508199801724</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.170769741019</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.300929062907</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.725320458252</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.452608862631</v>
+        <v>1861.667907912312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1677.506323552278</v>
+        <v>1861.667907912312</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>519.1022697717622</v>
+        <v>418.3291315370391</v>
       </c>
       <c r="C16" t="n">
-        <v>519.1022697717622</v>
+        <v>276.585995274591</v>
       </c>
       <c r="D16" t="n">
-        <v>396.1786770248852</v>
+        <v>276.585995274591</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1786770248852</v>
+        <v>155.8659483576566</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248852</v>
+        <v>155.8659483576566</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650628</v>
+        <v>155.8659483576566</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159349</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016274</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5464,7 +5464,7 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533277</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
         <v>1456.89615132438</v>
@@ -5473,13 +5473,13 @@
         <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124502</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>867.1572204146146</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.5576879365432</v>
+        <v>572.7845497018201</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1797.037868444464</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="C17" t="n">
-        <v>1502.718031117585</v>
+        <v>1224.592055461003</v>
       </c>
       <c r="D17" t="n">
-        <v>1219.095012124366</v>
+        <v>940.9690364677849</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274309</v>
+        <v>629.8234634830727</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513554</v>
+        <v>293.4802383069972</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098842</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749797</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904882</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.314759904882</v>
+        <v>2445.1887842483</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.491681257334</v>
+        <v>2146.365705600752</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.995028895054</v>
+        <v>1830.869053238473</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470829</v>
+        <v>569.1149231470832</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327081</v>
+        <v>474.8214198327083</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339044</v>
+        <v>399.3474600339047</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650434</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806651</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G19" t="n">
         <v>160.7696211689162</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030601</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
         <v>1795.063565899911</v>
@@ -5704,19 +5704,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194057</v>
+        <v>1370.433778194058</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601702</v>
+        <v>1190.391969601703</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782738</v>
+        <v>975.6174791782742</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937886</v>
+        <v>822.2706078937889</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637905</v>
+        <v>676.1207083637909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1834.408545150162</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1224.592055461003</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>940.9690364677849</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274311</v>
+        <v>629.8234634830724</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8234634830724</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098842</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749797</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V20" t="n">
         <v>2723.314759904882</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.188784248299</v>
+        <v>2445.1887842483</v>
       </c>
       <c r="X20" t="n">
         <v>2146.365705600752</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.365705600752</v>
+        <v>1830.869053238473</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751705</v>
+        <v>569.1149231470832</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607957</v>
+        <v>474.8214198327083</v>
       </c>
       <c r="D22" t="n">
-        <v>462.393124661992</v>
+        <v>399.3474600339047</v>
       </c>
       <c r="E22" t="n">
-        <v>389.122710693131</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8754428087527</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G22" t="n">
         <v>160.7696211689162</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030601</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
         <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454882</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822145</v>
+        <v>1370.433778194058</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601703</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782742</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218762</v>
+        <v>822.2706078937889</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918781</v>
+        <v>676.1207083637909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859983465451</v>
+        <v>1567.859983465452</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.091391487521</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.7481663114455</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227235</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227235</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512977</v>
+        <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411442</v>
+        <v>596.0759796411444</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642097561477</v>
+        <v>1917.044667005838</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.823484064618</v>
+        <v>2463.82348406462</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943955</v>
+        <v>2966.795954943957</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301133</v>
+        <v>3361.570321301135</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056815</v>
+        <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909329</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252747</v>
+        <v>2788.456712252749</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.6336336052</v>
+        <v>2489.633633605201</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.13698124292</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073442</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227235</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828907</v>
+        <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632378</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775903</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998219</v>
+        <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970728</v>
+        <v>2103.777751970727</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352592</v>
+        <v>575.9802817071723</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208844</v>
+        <v>481.6867783927974</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220807</v>
+        <v>406.2128185939937</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532197</v>
+        <v>332.9424046251326</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7408013688414</v>
+        <v>260.6951367407543</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290052</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039494</v>
+        <v>96.06047256039503</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227235</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880842</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365803</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361293</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496066</v>
+        <v>1856.549610496067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648581</v>
+        <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019641</v>
+        <v>1918.972129019642</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92892446</v>
@@ -6178,19 +6178,19 @@
         <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382233</v>
+        <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
         <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>1045.528502366451</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819648</v>
+        <v>829.1359664538779</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519668</v>
+        <v>682.9860669238799</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1561.793016801446</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2095.324921473371</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532153</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676542</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6467,46 +6467,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572845</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.154208495152</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803193</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>875.932246148438</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3336.058965299584</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6883,16 +6883,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127193</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799118</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415473</v>
@@ -7087,46 +7087,46 @@
         <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7160,55 +7160,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>668.7073684286661</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127193</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799118</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.0444828579</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O38" t="n">
         <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960305</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350172</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,10 +7397,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668916</v>
@@ -7409,25 +7409,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>393.2994530991709</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>727.1188267890172</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1178.153040037426</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1711.68494470935</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2258.463761768132</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647469</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603403</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7488,25 +7488,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7573,7 +7573,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7582,10 +7582,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7634,55 +7634,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>393.29945309917</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>727.1188267890163</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.153040037425</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1711.684944709349</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2258.463761768131</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,22 +7722,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7783,34 +7783,34 @@
         <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,10 +7825,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
         <v>2127.355355052751</v>
@@ -7846,7 +7846,7 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519659</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886088</v>
+        <v>164.4450187886085</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592904</v>
+        <v>195.20942665929</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419187</v>
+        <v>204.9000484419182</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526773</v>
+        <v>196.0014531526767</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740264</v>
+        <v>194.5125490740259</v>
       </c>
       <c r="O8" t="n">
-        <v>197.142645220105</v>
+        <v>197.1426452201044</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561905</v>
+        <v>203.10618245619</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567224</v>
+        <v>201.1836244567221</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485204</v>
+        <v>116.9502528485202</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814157</v>
+        <v>120.9423422814154</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981495</v>
+        <v>115.8314587981491</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072877</v>
+        <v>115.6174569072873</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775603</v>
+        <v>104.1233201775598</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951439</v>
+        <v>117.6967333951435</v>
       </c>
       <c r="P9" t="n">
-        <v>113.990354617596</v>
+        <v>113.9903546175956</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213388</v>
+        <v>126.6229640213386</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218789</v>
+        <v>121.8405463218786</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274366</v>
+        <v>125.1725778274364</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466752</v>
+        <v>114.259358846675</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419908</v>
+        <v>126.0552829419905</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773782</v>
+        <v>127.116587577378</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8005751963233</v>
       </c>
       <c r="N23" t="n">
-        <v>339.8005751963224</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>187.8883066283069</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>62.5201857066379</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>105.7385611944686</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>19.40311602546689</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>277.2206841544148</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>108.7354935515733</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>65.51711806374237</v>
       </c>
       <c r="L38" t="n">
-        <v>277.2206841544148</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5185911550064</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>221.2853655744087</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>306.6874953089247</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.039564869223</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>172.5090198987288</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.4674417012204</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>33.23406321318988</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>190.9977004074221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0745179841765</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412183</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.37360510929841</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.76540685237575</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>57.69382784989892</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0385437499152</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000162</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.69685791125853</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.05875082560049236</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1146118.150577594</v>
+        <v>1146118.150577593</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958773.2748420476</v>
+        <v>958773.2748420477</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958773.2748420478</v>
+        <v>958773.2748420479</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>368674.3524226673</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.8814589238</v>
+        <v>368674.881458924</v>
       </c>
       <c r="D2" t="n">
-        <v>368681.3586375117</v>
+        <v>368681.3586375116</v>
       </c>
       <c r="E2" t="n">
-        <v>328293.7710358285</v>
+        <v>328293.7710358283</v>
       </c>
       <c r="F2" t="n">
         <v>328293.7710358286</v>
       </c>
       <c r="G2" t="n">
-        <v>357539.3558018057</v>
+        <v>357539.3558018053</v>
       </c>
       <c r="H2" t="n">
-        <v>357539.3558018057</v>
+        <v>357539.3558018053</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="J2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="M2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389277</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389276</v>
       </c>
-      <c r="N2" t="n">
-        <v>369468.7964389276</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>369468.7964389278</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389279</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936415</v>
+        <v>38521.85015936485</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015502</v>
+        <v>1106215.961015501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071768</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049039</v>
+        <v>25410.34822049021</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343054</v>
+        <v>422862.8573343052</v>
       </c>
       <c r="E4" t="n">
         <v>38195.30988554745</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554747</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400183</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157187</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409841</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="N4" t="n">
         <v>82806.76150409842</v>
       </c>
-      <c r="N4" t="n">
-        <v>82806.76150409845</v>
-      </c>
       <c r="O4" t="n">
-        <v>82806.76150409847</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409842</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058922</v>
+        <v>34688.26308058924</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911055</v>
+        <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101227.1272965809</v>
+        <v>-101231.540874449</v>
       </c>
       <c r="C6" t="n">
-        <v>-103619.2766031299</v>
+        <v>-103623.6872419075</v>
       </c>
       <c r="D6" t="n">
-        <v>-127391.6119367471</v>
+        <v>-127395.9865912</v>
       </c>
       <c r="E6" t="n">
-        <v>-892687.0717443319</v>
+        <v>-892915.8218854591</v>
       </c>
       <c r="F6" t="n">
-        <v>213528.8892711708</v>
+        <v>213300.1391300423</v>
       </c>
       <c r="G6" t="n">
-        <v>164217.4147234308</v>
+        <v>164151.1400532242</v>
       </c>
       <c r="H6" t="n">
-        <v>201797.5240183049</v>
+        <v>201731.2493480982</v>
       </c>
       <c r="I6" t="n">
         <v>174152.7288314711</v>
       </c>
       <c r="J6" t="n">
-        <v>171873.7450395325</v>
+        <v>171873.7450395328</v>
       </c>
       <c r="K6" t="n">
-        <v>197284.0932600229</v>
+        <v>197284.0932600232</v>
       </c>
       <c r="L6" t="n">
-        <v>159703.9839651488</v>
+        <v>159703.9839651491</v>
       </c>
       <c r="M6" t="n">
-        <v>-9904.475032049886</v>
+        <v>-9904.475032049595</v>
       </c>
       <c r="N6" t="n">
         <v>197284.0932600231</v>
       </c>
       <c r="O6" t="n">
+        <v>197284.0932600231</v>
+      </c>
+      <c r="P6" t="n">
         <v>197284.0932600232</v>
-      </c>
-      <c r="P6" t="n">
-        <v>197284.0932600233</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>26.92111619880415</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179923</v>
+        <v>48.65426975180003</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034044</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9804068585569</v>
+        <v>44.98040685855771</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841499</v>
+        <v>1041.122430841498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111191</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1180238052101</v>
+        <v>97.11802380520942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403306</v>
+        <v>202.9352112403305</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128222</v>
+        <v>137.582570112822</v>
       </c>
       <c r="S8" t="n">
-        <v>204.562947286872</v>
+        <v>204.5629472868719</v>
       </c>
       <c r="T8" t="n">
         <v>222.2396322140268</v>
@@ -27947,10 +27947,10 @@
         <v>137.2388645829898</v>
       </c>
       <c r="H9" t="n">
-        <v>111.2247206327846</v>
+        <v>111.2247206327845</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451297</v>
+        <v>85.79346287451291</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805379</v>
+        <v>93.66019412805369</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880815</v>
+        <v>87.15615952880805</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739115</v>
+        <v>12.07602350739098</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.8152485191727</v>
+        <v>78.81524851917258</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723761</v>
+        <v>173.348407472376</v>
       </c>
       <c r="S10" t="n">
         <v>222.4875777891985</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="U19" t="n">
-        <v>11.48104483559018</v>
+        <v>11.48104483559041</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G22" t="n">
-        <v>11.48104483559004</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739674</v>
+        <v>11.48104483559038</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
       <c r="G25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="H25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="I25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="S25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="T25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="U25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="V25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="W25" t="n">
+        <v>73.8962528173967</v>
+      </c>
+      <c r="X25" t="n">
         <v>11.48104483559027</v>
       </c>
-      <c r="H25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="I25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="S25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="T25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="U25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="V25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="W25" t="n">
-        <v>73.89625281739674</v>
-      </c>
-      <c r="X25" t="n">
-        <v>73.89625281739674</v>
-      </c>
       <c r="Y25" t="n">
-        <v>73.89625281739674</v>
+        <v>73.8962528173967</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859358</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859173</v>
       </c>
       <c r="K40" t="n">
         <v>46.97513661859259</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859075</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785897</v>
+        <v>0.1955950542785929</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630607</v>
+        <v>2.00313784963064</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075337</v>
+        <v>7.540678330075462</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807747</v>
+        <v>16.60088573807774</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438569018</v>
+        <v>24.88042438569058</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806857</v>
+        <v>30.86636652806908</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459544</v>
+        <v>34.34478007459601</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256449</v>
+        <v>34.90051452256506</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158176</v>
+        <v>32.9555662015823</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907907</v>
+        <v>28.12681329907953</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772707</v>
+        <v>21.12206541772742</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832747</v>
+        <v>12.28654782832767</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373367</v>
+        <v>4.457122299373441</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045269</v>
+        <v>0.856217350104541</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228717</v>
+        <v>0.01564760434228743</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208512</v>
+        <v>0.1046525802208529</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711905</v>
+        <v>1.010723603711922</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902113</v>
+        <v>3.603169976902172</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146296</v>
+        <v>9.887373818146459</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294332</v>
+        <v>16.8990966929436</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172473</v>
+        <v>22.7229209817251</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473058</v>
+        <v>26.51657701473101</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577304</v>
+        <v>27.21839190577349</v>
       </c>
       <c r="O9" t="n">
-        <v>24.8995110493005</v>
+        <v>24.89951104930091</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673429</v>
+        <v>19.98405279673462</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468269</v>
+        <v>13.35881006468291</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589341</v>
+        <v>6.497640024589448</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347826</v>
+        <v>1.943875777347858</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386972026</v>
+        <v>0.4218233386972096</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424422</v>
+        <v>0.006885038172424535</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914613</v>
+        <v>0.08773720774914759</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878635</v>
+        <v>0.7800635379878764</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310686</v>
+        <v>2.63849712031073</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864631</v>
+        <v>6.203020587864734</v>
       </c>
       <c r="K10" t="n">
-        <v>10.1934683184917</v>
+        <v>10.19346831849187</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935942</v>
+        <v>13.04412995935964</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016842</v>
+        <v>13.75320612016865</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855798</v>
+        <v>13.4261856185582</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985204</v>
+        <v>12.40125550985225</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176945</v>
+        <v>10.61141647176963</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521683</v>
+        <v>7.346794732521804</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793424</v>
+        <v>3.94498390479349</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773755</v>
+        <v>1.529020247773781</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827152</v>
+        <v>0.3748771603827214</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226159</v>
+        <v>0.004785665877226238</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,10 +32546,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,28 +32558,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>232.9687757431237</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690024</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
         <v>374.554495592288</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187034</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690022</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,19 +36206,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.72169102655</v>
       </c>
       <c r="N23" t="n">
-        <v>892.1024106092336</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359781</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>643.4784210206388</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>705.4494815282961</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>461.2821719260098</v>
+        <v>705.4494815282961</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>442.9298477498691</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>418.1651022448385</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>732.8107985467467</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>359.5297983552928</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887917</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>402.7084046191429</v>
       </c>
       <c r="L38" t="n">
-        <v>732.8107985467467</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165796</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>315.3055921237189</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>620.0473517937805</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>315.305592123718</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>814.7404961971438</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564844</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
